--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\School\Drive\TAKEDA\PhD\3D_Scan\Supplementary_material\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptroll\Box Sync\Stockholm 2020\001 - KTH 2020\016 - Output docs\MDPI\201126\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC4756D-6951-4B0A-9C2E-B45BE9FA6EF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="4356" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>RS</t>
   </si>
@@ -45,12 +44,6 @@
   </si>
   <si>
     <t>range</t>
-  </si>
-  <si>
-    <t>meas. Uncertainty</t>
-  </si>
-  <si>
-    <t>mean uncertainty</t>
   </si>
   <si>
     <t>measured value</t>
@@ -70,15 +63,27 @@
   <si>
     <t>Measurements</t>
   </si>
+  <si>
+    <t>std of the mean</t>
+  </si>
+  <si>
+    <t>Single depth capture</t>
+  </si>
+  <si>
+    <t>Real value</t>
+  </si>
+  <si>
+    <t>Mean value</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +98,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -102,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -408,11 +419,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -461,6 +487,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1243,7 +1272,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="hu-HU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1402193280"/>
@@ -1307,7 +1336,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="hu-HU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1399576384"/>
@@ -1327,7 +1356,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="hu-HU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2101,7 +2130,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="hu-HU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1402193280"/>
@@ -2165,7 +2194,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="hu-HU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1399576384"/>
@@ -2185,7 +2214,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="hu-HU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2959,7 +2988,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="hu-HU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1402193280"/>
@@ -3023,7 +3052,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="hu-HU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1399576384"/>
@@ -3043,7 +3072,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="hu-HU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3054,20 +3083,1587 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.3389025639908258E-2"/>
+          <c:y val="2.5494208051716927E-2"/>
+          <c:w val="0.92422916537160849"/>
+          <c:h val="0.85630537279941366"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RTAB-map</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$H$3:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$I$3:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.2626999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0367999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1372</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1211</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1071</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2645999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0741000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0978000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1771</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1915</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.93559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0481</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0585</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99650000000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1926000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.97809999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0952</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-002F-4165-9E16-A50FE356EB84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Single depth capture</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$J$3:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$K$3:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.0387999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2302999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2011000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0074000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1047</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0073000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99509999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99560000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98350000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0487</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0205</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1086</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1065</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.92130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2564</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0279</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2353000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.97489999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-002F-4165-9E16-A50FE356EB84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARCore</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$L$3:$L$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$M$3:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.2498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2564</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0279</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2346999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97440000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2305999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99460000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99019999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.105</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0077</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99450000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.89500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0205</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0387999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0487</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1086</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1065</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.92130000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-002F-4165-9E16-A50FE356EB84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$I$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$H$25:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$I$25:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-002F-4165-9E16-A50FE356EB84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$L$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="41275" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$K$25:$K$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$L$25:$L$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0816699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.047415</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0402900000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-002F-4165-9E16-A50FE356EB84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="508236808"/>
+        <c:axId val="508236152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="508236808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="508236152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="508236152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU" cap="none" baseline="0"/>
+                  <a:t>Measured length [m]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" cap="none" baseline="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508236808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.9514937974992598E-2"/>
+          <c:y val="0.87270725495448997"/>
+          <c:w val="0.85572144404804096"/>
+          <c:h val="0.10748263218482262"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="243">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" kern="1200" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1038225</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3098,14 +4694,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1038225</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3136,14 +4732,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1038225</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3165,6 +4761,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>263100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>187860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>563337</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3435,11 +5063,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3452,7 +5080,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>0</v>
@@ -3474,25 +5102,31 @@
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32"/>
       <c r="B2" s="20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="36"/>
+      <c r="M2" s="35" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="9">
         <v>1.2626999999999999</v>
@@ -3508,12 +5142,24 @@
       <c r="G3" s="26">
         <v>0</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="H3" s="36">
+        <v>1</v>
+      </c>
+      <c r="I3" s="35">
+        <v>1.2626999999999999</v>
+      </c>
+      <c r="J3" s="35">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35">
+        <v>1.0387999999999999</v>
+      </c>
+      <c r="L3" s="35">
+        <v>3</v>
+      </c>
+      <c r="M3" s="35">
+        <v>1.2498</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="33"/>
@@ -3531,12 +5177,24 @@
       <c r="G4" s="26">
         <v>0</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="H4" s="36">
+        <v>1</v>
+      </c>
+      <c r="I4" s="35">
+        <v>1.0367999999999999</v>
+      </c>
+      <c r="J4" s="35">
+        <v>2</v>
+      </c>
+      <c r="K4" s="35">
+        <v>1.2302999999999999</v>
+      </c>
+      <c r="L4" s="35">
+        <v>3</v>
+      </c>
+      <c r="M4" s="35">
+        <v>1.2564</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
@@ -3554,12 +5212,24 @@
       <c r="G5" s="26">
         <v>0</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="H5" s="36">
+        <v>1</v>
+      </c>
+      <c r="I5" s="35">
+        <v>1.1372</v>
+      </c>
+      <c r="J5" s="35">
+        <v>2</v>
+      </c>
+      <c r="K5" s="35">
+        <v>1.2011000000000001</v>
+      </c>
+      <c r="L5" s="35">
+        <v>3</v>
+      </c>
+      <c r="M5" s="35">
+        <v>1.0279</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="33"/>
@@ -3577,12 +5247,24 @@
       <c r="G6" s="26">
         <v>0</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="H6" s="36">
+        <v>1</v>
+      </c>
+      <c r="I6" s="35">
+        <v>1.1211</v>
+      </c>
+      <c r="J6" s="35">
+        <v>2</v>
+      </c>
+      <c r="K6" s="35">
+        <v>1.0074000000000001</v>
+      </c>
+      <c r="L6" s="35">
+        <v>3</v>
+      </c>
+      <c r="M6" s="35">
+        <v>1.2346999999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="33"/>
@@ -3600,12 +5282,24 @@
       <c r="G7" s="26">
         <v>0</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="H7" s="36">
+        <v>1</v>
+      </c>
+      <c r="I7" s="35">
+        <v>1.1071</v>
+      </c>
+      <c r="J7" s="35">
+        <v>2</v>
+      </c>
+      <c r="K7" s="35">
+        <v>1.1047</v>
+      </c>
+      <c r="L7" s="35">
+        <v>3</v>
+      </c>
+      <c r="M7" s="35">
+        <v>0.97440000000000004</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
@@ -3623,12 +5317,24 @@
       <c r="G8" s="26">
         <v>0</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="H8" s="36">
+        <v>1</v>
+      </c>
+      <c r="I8" s="35">
+        <v>1.2645999999999999</v>
+      </c>
+      <c r="J8" s="35">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35">
+        <v>1.0073000000000001</v>
+      </c>
+      <c r="L8" s="35">
+        <v>3</v>
+      </c>
+      <c r="M8" s="35">
+        <v>1.2305999999999999</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
@@ -3646,12 +5352,24 @@
       <c r="G9" s="26">
         <v>0</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+      <c r="H9" s="36">
+        <v>1</v>
+      </c>
+      <c r="I9" s="35">
+        <v>1.0741000000000001</v>
+      </c>
+      <c r="J9" s="35">
+        <v>2</v>
+      </c>
+      <c r="K9" s="35">
+        <v>0.99509999999999998</v>
+      </c>
+      <c r="L9" s="35">
+        <v>3</v>
+      </c>
+      <c r="M9" s="35">
+        <v>0.99460000000000004</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="33"/>
@@ -3669,12 +5387,24 @@
       <c r="G10" s="26">
         <v>0</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="H10" s="36">
+        <v>1</v>
+      </c>
+      <c r="I10" s="35">
+        <v>0.89590000000000003</v>
+      </c>
+      <c r="J10" s="35">
+        <v>2</v>
+      </c>
+      <c r="K10" s="35">
+        <v>0.99560000000000004</v>
+      </c>
+      <c r="L10" s="35">
+        <v>3</v>
+      </c>
+      <c r="M10" s="35">
+        <v>0.99019999999999997</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="33"/>
@@ -3692,12 +5422,24 @@
       <c r="G11" s="26">
         <v>0</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="H11" s="36">
+        <v>1</v>
+      </c>
+      <c r="I11" s="35">
+        <v>1.0978000000000001</v>
+      </c>
+      <c r="J11" s="35">
+        <v>2</v>
+      </c>
+      <c r="K11" s="35">
+        <v>0.98350000000000004</v>
+      </c>
+      <c r="L11" s="35">
+        <v>3</v>
+      </c>
+      <c r="M11" s="35">
+        <v>1.105</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="33"/>
@@ -3715,12 +5457,24 @@
       <c r="G12" s="26">
         <v>0</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="H12" s="36">
+        <v>1</v>
+      </c>
+      <c r="I12" s="35">
+        <v>0.96660000000000001</v>
+      </c>
+      <c r="J12" s="35">
+        <v>2</v>
+      </c>
+      <c r="K12" s="35">
+        <v>0.99709999999999999</v>
+      </c>
+      <c r="L12" s="35">
+        <v>3</v>
+      </c>
+      <c r="M12" s="35">
+        <v>1.0077</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="33"/>
@@ -3738,12 +5492,24 @@
       <c r="G13" s="26">
         <v>0</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="H13" s="36">
+        <v>1</v>
+      </c>
+      <c r="I13" s="35">
+        <v>1.1771</v>
+      </c>
+      <c r="J13" s="35">
+        <v>2</v>
+      </c>
+      <c r="K13" s="35">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="L13" s="35">
+        <v>3</v>
+      </c>
+      <c r="M13" s="35">
+        <v>0.99580000000000002</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
@@ -3761,12 +5527,24 @@
       <c r="G14" s="26">
         <v>0</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="H14" s="36">
+        <v>1</v>
+      </c>
+      <c r="I14" s="35">
+        <v>1.1915</v>
+      </c>
+      <c r="J14" s="35">
+        <v>2</v>
+      </c>
+      <c r="K14" s="35">
+        <v>1.0487</v>
+      </c>
+      <c r="L14" s="35">
+        <v>3</v>
+      </c>
+      <c r="M14" s="35">
+        <v>0.99709999999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="33"/>
@@ -3784,12 +5562,24 @@
       <c r="G15" s="26">
         <v>0</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+      <c r="H15" s="36">
+        <v>1</v>
+      </c>
+      <c r="I15" s="35">
+        <v>0.93559999999999999</v>
+      </c>
+      <c r="J15" s="35">
+        <v>2</v>
+      </c>
+      <c r="K15" s="35">
+        <v>1.0205</v>
+      </c>
+      <c r="L15" s="35">
+        <v>3</v>
+      </c>
+      <c r="M15" s="35">
+        <v>0.99450000000000005</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="33"/>
@@ -3807,12 +5597,24 @@
       <c r="G16" s="26">
         <v>0</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+      <c r="H16" s="36">
+        <v>1</v>
+      </c>
+      <c r="I16" s="35">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="J16" s="35">
+        <v>2</v>
+      </c>
+      <c r="K16" s="35">
+        <v>1.1086</v>
+      </c>
+      <c r="L16" s="35">
+        <v>3</v>
+      </c>
+      <c r="M16" s="35">
+        <v>0.89500000000000002</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="33"/>
@@ -3830,12 +5632,24 @@
       <c r="G17" s="26">
         <v>0</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+      <c r="H17" s="36">
+        <v>1</v>
+      </c>
+      <c r="I17" s="35">
+        <v>1.0481</v>
+      </c>
+      <c r="J17" s="35">
+        <v>2</v>
+      </c>
+      <c r="K17" s="35">
+        <v>1.1065</v>
+      </c>
+      <c r="L17" s="35">
+        <v>3</v>
+      </c>
+      <c r="M17" s="35">
+        <v>1.0205</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="33"/>
@@ -3853,12 +5667,24 @@
       <c r="G18" s="26">
         <v>0</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+      <c r="H18" s="36">
+        <v>1</v>
+      </c>
+      <c r="I18" s="35">
+        <v>1.0585</v>
+      </c>
+      <c r="J18" s="35">
+        <v>2</v>
+      </c>
+      <c r="K18" s="35">
+        <v>0.92130000000000001</v>
+      </c>
+      <c r="L18" s="35">
+        <v>3</v>
+      </c>
+      <c r="M18" s="35">
+        <v>1.0387999999999999</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="33"/>
@@ -3876,12 +5702,24 @@
       <c r="G19" s="26">
         <v>0</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+      <c r="H19" s="36">
+        <v>1</v>
+      </c>
+      <c r="I19" s="35">
+        <v>0.99650000000000005</v>
+      </c>
+      <c r="J19" s="35">
+        <v>2</v>
+      </c>
+      <c r="K19" s="35">
+        <v>1.2564</v>
+      </c>
+      <c r="L19" s="35">
+        <v>3</v>
+      </c>
+      <c r="M19" s="35">
+        <v>1.0487</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
@@ -3899,12 +5737,24 @@
       <c r="G20" s="26">
         <v>0</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="H20" s="36">
+        <v>1</v>
+      </c>
+      <c r="I20" s="35">
+        <v>1.1926000000000001</v>
+      </c>
+      <c r="J20" s="35">
+        <v>2</v>
+      </c>
+      <c r="K20" s="35">
+        <v>1.0279</v>
+      </c>
+      <c r="L20" s="35">
+        <v>3</v>
+      </c>
+      <c r="M20" s="35">
+        <v>1.1086</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
@@ -3922,12 +5772,24 @@
       <c r="G21" s="26">
         <v>0</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+      <c r="H21" s="36">
+        <v>1</v>
+      </c>
+      <c r="I21" s="35">
+        <v>0.97809999999999997</v>
+      </c>
+      <c r="J21" s="35">
+        <v>2</v>
+      </c>
+      <c r="K21" s="35">
+        <v>1.2353000000000001</v>
+      </c>
+      <c r="L21" s="35">
+        <v>3</v>
+      </c>
+      <c r="M21" s="35">
+        <v>1.1065</v>
+      </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="33"/>
@@ -3945,12 +5807,24 @@
       <c r="G22" s="26">
         <v>0</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="H22" s="36">
+        <v>1</v>
+      </c>
+      <c r="I22" s="35">
+        <v>1.0952</v>
+      </c>
+      <c r="J22" s="35">
+        <v>2</v>
+      </c>
+      <c r="K22" s="35">
+        <v>0.97489999999999999</v>
+      </c>
+      <c r="L22" s="35">
+        <v>3</v>
+      </c>
+      <c r="M22" s="35">
+        <v>0.92130000000000001</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
@@ -3995,138 +5869,127 @@
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="4"/>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B25" s="21">
-        <f>B24/2</f>
-        <v>0.18434999999999996</v>
+        <v>2.2608694649404001E-2</v>
       </c>
       <c r="C25" s="6">
-        <f>C24/2</f>
-        <v>0.18069999999999997</v>
+        <v>2.2650850977392001E-2</v>
       </c>
       <c r="D25" s="17">
-        <f>D24/2</f>
-        <v>0.18069999999999997</v>
+        <v>2.3557435636121001E-2</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="4"/>
+      <c r="G25" s="34"/>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1.0816699999999999</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" s="21">
-        <f>B25/SQRT(COUNT(B3:B22))</f>
-        <v>4.122191316520861E-2</v>
+        <f>B23</f>
+        <v>1.0814049999999997</v>
       </c>
       <c r="C26" s="6">
-        <f>C25/SQRT(COUNT(C3:C22))</f>
-        <v>4.0405748353421193E-2</v>
+        <f>C23</f>
+        <v>1.0577999999999999</v>
       </c>
       <c r="D26" s="17">
-        <f>D25/SQRT(COUNT(D3:D22))</f>
-        <v>4.0405748353421193E-2</v>
+        <f>D23</f>
+        <v>1.0599049999999999</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="4"/>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1.047415</v>
+      </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="21">
-        <f>B23</f>
-        <v>1.0814049999999997</v>
-      </c>
-      <c r="C27" s="6">
-        <f>C23</f>
-        <v>1.0577999999999999</v>
-      </c>
-      <c r="D27" s="17">
-        <f>D23</f>
-        <v>1.0599049999999999</v>
+    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="20">
+        <f>B25</f>
+        <v>2.2608694649404001E-2</v>
+      </c>
+      <c r="C27" s="8">
+        <f>C25</f>
+        <v>2.2650850977392001E-2</v>
+      </c>
+      <c r="D27" s="14">
+        <f>D25</f>
+        <v>2.3557435636121001E-2</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="4"/>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1.0402900000000002</v>
+      </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="20">
-        <f>B26</f>
-        <v>4.122191316520861E-2</v>
-      </c>
-      <c r="C28" s="8">
-        <f>C26</f>
-        <v>4.0405748353421193E-2</v>
-      </c>
-      <c r="D28" s="14">
-        <f>D26</f>
-        <v>4.0405748353421193E-2</v>
-      </c>
+      <c r="A28" s="13"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="4"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
